--- a/biology/Botanique/Dans_les_bois_(film_lituanien)/Dans_les_bois_(film_lituanien).xlsx
+++ b/biology/Botanique/Dans_les_bois_(film_lituanien)/Dans_les_bois_(film_lituanien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les bois est un documentaire lituanien réalisé par Mindaugas Survila, sorti en 2017.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans ce film documentaire sans commentaire ni dialogues, le réalisateur Mindaugas Survila pose sa caméra en Lituanie, au cœur d'une des dernières forêts primaires d'Europe[1]. À partir des sons et des images captés dans la nature, Mindaugas Survila plonge le spectateur au plus près de la faune sauvage : loups, bisons, blaireaux et petits rongeurs, grands tétras et rapaces, cigognes et vipères... L'expérience par la captation sonore et le montage des séquences est saisissante :  les spectateurs sont au cœur de la forêt au plus près des animaux filmés[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce film documentaire sans commentaire ni dialogues, le réalisateur Mindaugas Survila pose sa caméra en Lituanie, au cœur d'une des dernières forêts primaires d'Europe. À partir des sons et des images captés dans la nature, Mindaugas Survila plonge le spectateur au plus près de la faune sauvage : loups, bisons, blaireaux et petits rongeurs, grands tétras et rapaces, cigognes et vipères... L'expérience par la captation sonore et le montage des séquences est saisissante :  les spectateurs sont au cœur de la forêt au plus près des animaux filmés,.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Prix et récompenses
-Prix spécial du jury au Matsalu International Nature Film Festival de Tallinn (Estonie, 2018).
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix spécial du jury au Matsalu International Nature Film Festival de Tallinn (Estonie, 2018).
 Prix du meilleur film au Wolves Independent International Film de Vilnius (Lituanie, 2018)</t>
         </is>
       </c>
